--- a/tkinter_excel_app/chrome_path.xlsx
+++ b/tkinter_excel_app/chrome_path.xlsx
@@ -472,9 +472,21 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C:/Users/a_asf/AppData/Local/Google/Chrome/User Data/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C/Program/ Files/Google/Chrome/Application/chrome.exe</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tkinter_excel_app/chrome_path.xlsx
+++ b/tkinter_excel_app/chrome_path.xlsx
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sf</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
